--- a/configTools/Luban/ConfigRoot/Datas/item.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/item.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="item" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="item" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'item'!$A$4:$Z$138</definedName>
@@ -956,8 +956,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>
@@ -4370,7 +4370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12397,6 +12397,6 @@
   <autoFilter ref="A4:Z138"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/configTools/Luban/ConfigRoot/Datas/item.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="16548" windowHeight="6168" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" state="visible" r:id="rId1"/>
@@ -830,7 +830,8 @@
         <t>许天盈:
 1 资源
 2 碎片
-3 杂物箱子--包含资源和碎片</t>
+3 杂物箱子--包含资源和碎片
+4 英雄</t>
       </text>
     </comment>
     <comment ref="D4" authorId="0" shapeId="0">
@@ -1146,12 +1147,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -1615,8 +1616,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="18.65" customHeight="1" s="5"/>
-    <row r="12" ht="16.25" customHeight="1" s="5"/>
+    <row r="11" ht="18.65" customHeight="1" s="5">
+      <c r="B11" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="16.25" customHeight="1" s="5">
+      <c r="B12" s="2" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A4:K138"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configTools/Luban/ConfigRoot/Datas/item.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/item.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="16548" windowHeight="6168" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="17412" windowHeight="4248" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item'!$A$4:$K$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item'!$A$4:$L$139</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -1147,28 +1147,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col width="9" customWidth="1" style="2" min="1" max="1"/>
-    <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="12.3611111111111" customWidth="1" style="2" min="3" max="3"/>
-    <col width="15.7222222222222" customWidth="1" style="2" min="4" max="4"/>
-    <col width="16.7222222222222" customWidth="1" style="2" min="5" max="5"/>
-    <col width="9" customWidth="1" style="2" min="6" max="6"/>
-    <col width="12.0925925925926" customWidth="1" style="2" min="7" max="7"/>
-    <col width="15.7222222222222" customWidth="1" style="2" min="8" max="8"/>
-    <col width="13.0925925925926" customWidth="1" style="2" min="9" max="9"/>
-    <col width="19.3611111111111" customWidth="1" style="2" min="10" max="10"/>
-    <col width="14.2685185185185" customWidth="1" style="2" min="11" max="11"/>
-    <col width="9" customWidth="1" style="2" min="12" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="1" max="2"/>
+    <col width="9" customWidth="1" style="2" min="3" max="3"/>
+    <col width="12.3611111111111" customWidth="1" style="2" min="4" max="4"/>
+    <col width="15.7222222222222" customWidth="1" style="2" min="5" max="5"/>
+    <col width="16.7222222222222" customWidth="1" style="2" min="6" max="6"/>
+    <col width="9" customWidth="1" style="2" min="7" max="7"/>
+    <col width="12.0925925925926" customWidth="1" style="2" min="8" max="8"/>
+    <col width="15.7222222222222" customWidth="1" style="2" min="9" max="9"/>
+    <col width="13.0925925925926" customWidth="1" style="2" min="10" max="10"/>
+    <col width="19.3611111111111" customWidth="1" style="2" min="11" max="11"/>
+    <col width="14.2685185185185" customWidth="1" style="2" min="12" max="12"/>
+    <col width="9" customWidth="1" style="2" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" customFormat="1" customHeight="1" s="1">
@@ -1618,23 +1618,23 @@
     </row>
     <row r="11" ht="18.65" customHeight="1" s="5">
       <c r="B11" s="2" t="n">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" ht="16.25" customHeight="1" s="5">
+    <row r="12" ht="18.65" customHeight="1" s="5">
       <c r="B12" s="2" t="n">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="16.25" customHeight="1" s="5">
       <c r="B13" s="2" t="n">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4</v>
@@ -1642,14 +1642,22 @@
     </row>
     <row r="14">
       <c r="B14" s="2" t="n">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4</v>
       </c>
     </row>
+    <row r="15">
+      <c r="B15" s="2" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:K138"/>
+  <autoFilter ref="A4:L139"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>

--- a/configTools/Luban/ConfigRoot/Datas/item.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/item.xlsx
@@ -1142,7 +1142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1660,6 +1660,6 @@
   <autoFilter ref="A4:L139"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/configTools/Luban/ConfigRoot/Datas/item.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="17412" windowHeight="4248" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -47,150 +47,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <sz val="9"/>
@@ -200,8 +56,14 @@
       <charset val="134"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -210,7 +72,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799432355723746"/>
+        <fgColor theme="8" tint="0.7994018372142705"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,194 +82,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -430,251 +106,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,56 +130,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -827,11 +213,10 @@
   <commentList>
     <comment ref="C4" authorId="0" shapeId="0">
       <text>
-        <t>许天盈:
-1 资源
-2 碎片
-3 杂物箱子--包含资源和碎片
-4 英雄</t>
+        <t xml:space="preserve">许天盈:
+1 物品
+2 英雄
+</t>
       </text>
     </comment>
     <comment ref="D4" authorId="0" shapeId="0">
@@ -1138,6 +523,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1149,25 +535,24 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="2"/>
     <col width="9" customWidth="1" style="2" min="3" max="3"/>
-    <col width="12.3611111111111" customWidth="1" style="2" min="4" max="4"/>
-    <col width="15.7222222222222" customWidth="1" style="2" min="5" max="5"/>
-    <col width="16.7222222222222" customWidth="1" style="2" min="6" max="6"/>
+    <col width="12.33203125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="15.6640625" customWidth="1" style="2" min="5" max="5"/>
+    <col width="21" customWidth="1" style="2" min="6" max="6"/>
     <col width="9" customWidth="1" style="2" min="7" max="7"/>
-    <col width="12.0925925925926" customWidth="1" style="2" min="8" max="8"/>
-    <col width="15.7222222222222" customWidth="1" style="2" min="9" max="9"/>
-    <col width="13.0925925925926" customWidth="1" style="2" min="10" max="10"/>
-    <col width="19.3611111111111" customWidth="1" style="2" min="11" max="11"/>
-    <col width="14.2685185185185" customWidth="1" style="2" min="12" max="12"/>
+    <col width="12.109375" customWidth="1" style="2" min="8" max="8"/>
+    <col width="15.6640625" customWidth="1" style="2" min="9" max="9"/>
+    <col width="13.109375" customWidth="1" style="2" min="10" max="10"/>
+    <col width="19.33203125" customWidth="1" style="2" min="11" max="11"/>
+    <col width="14.21875" customWidth="1" style="2" min="12" max="12"/>
     <col width="9" customWidth="1" style="2" min="13" max="16384"/>
   </cols>
   <sheetData>
@@ -1451,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="16.25" customHeight="1" s="5">
+    <row r="6" ht="16.2" customHeight="1" s="5">
       <c r="B6" s="2" t="n">
         <v>102</v>
       </c>
@@ -1483,12 +868,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="16.75" customHeight="1" s="5">
+    <row r="7" ht="16.8" customHeight="1" s="5">
       <c r="B7" s="2" t="n">
         <v>501</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -1520,12 +905,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" ht="16.75" customHeight="1" s="5">
+    <row r="8" ht="16.8" customHeight="1" s="5">
       <c r="B8" s="2" t="n">
         <v>201</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -1552,12 +937,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" ht="16.75" customHeight="1" s="5">
+    <row r="9" ht="16.8" customHeight="1" s="5">
       <c r="B9" s="2" t="n">
         <v>202</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -1584,12 +969,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="18.65" customHeight="1" s="5">
+    <row r="10" ht="18.6" customHeight="1" s="5">
       <c r="B10" s="2" t="n">
         <v>203</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1616,28 +1001,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="18.65" customHeight="1" s="5">
+    <row r="11" ht="18.6" customHeight="1" s="5">
       <c r="B11" s="2" t="n">
         <v>10000</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="18.65" customHeight="1" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="5">
       <c r="B12" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="16.25" customHeight="1" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="16.2" customHeight="1" s="5">
       <c r="B13" s="2" t="n">
         <v>10002</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1645,7 +1030,7 @@
         <v>10003</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1653,7 +1038,7 @@
         <v>10004</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/configTools/Luban/ConfigRoot/Datas/item.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/item.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -61,6 +61,13 @@
       <charset val="134"/>
       <sz val="9"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="4">
@@ -112,7 +119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -126,6 +133,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -537,7 +547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -547,7 +557,7 @@
     <col width="12.33203125" customWidth="1" style="2" min="4" max="4"/>
     <col width="15.6640625" customWidth="1" style="2" min="5" max="5"/>
     <col width="21" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.21875" customWidth="1" style="2" min="7" max="7"/>
     <col width="12.109375" customWidth="1" style="2" min="8" max="8"/>
     <col width="15.6640625" customWidth="1" style="2" min="9" max="9"/>
     <col width="13.109375" customWidth="1" style="2" min="10" max="10"/>
@@ -711,9 +721,9 @@
           <t>c,s</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>c</t>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>c,s</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
@@ -804,7 +814,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="17.4" customHeight="1" s="5">
+    <row r="5" ht="17.4" customHeight="1" s="6">
       <c r="B5" s="2" t="n">
         <v>101</v>
       </c>
@@ -836,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="16.2" customHeight="1" s="5">
+    <row r="6" ht="16.2" customHeight="1" s="6">
       <c r="B6" s="2" t="n">
         <v>102</v>
       </c>
@@ -868,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="16.8" customHeight="1" s="5">
+    <row r="7" ht="16.8" customHeight="1" s="6">
       <c r="B7" s="2" t="n">
         <v>501</v>
       </c>
@@ -905,7 +915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" ht="16.8" customHeight="1" s="5">
+    <row r="8" ht="16.8" customHeight="1" s="6">
       <c r="B8" s="2" t="n">
         <v>201</v>
       </c>
@@ -937,7 +947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" ht="16.8" customHeight="1" s="5">
+    <row r="9" ht="16.8" customHeight="1" s="6">
       <c r="B9" s="2" t="n">
         <v>202</v>
       </c>
@@ -969,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="18.6" customHeight="1" s="5">
+    <row r="10" ht="18.6" customHeight="1" s="6">
       <c r="B10" s="2" t="n">
         <v>203</v>
       </c>
@@ -1001,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="18.6" customHeight="1" s="5">
+    <row r="11" ht="18.6" customHeight="1" s="6">
       <c r="B11" s="2" t="n">
         <v>10000</v>
       </c>
@@ -1009,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="18.6" customHeight="1" s="5">
+    <row r="12" ht="18.6" customHeight="1" s="6">
       <c r="B12" s="2" t="n">
         <v>10001</v>
       </c>
@@ -1017,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="16.2" customHeight="1" s="5">
+    <row r="13" ht="16.2" customHeight="1" s="6">
       <c r="B13" s="2" t="n">
         <v>10002</v>
       </c>
